--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>higher wins</t>
   </si>
@@ -34,6 +34,39 @@
   </si>
   <si>
     <t>Most visited spaces</t>
+  </si>
+  <si>
+    <t>Captured by:</t>
+  </si>
+  <si>
+    <t>Captured:</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Pawn</t>
+  </si>
+  <si>
+    <t>sum:</t>
+  </si>
+  <si>
+    <t>count:</t>
+  </si>
+  <si>
+    <t>survival:</t>
   </si>
 </sst>
 </file>
@@ -607,11 +640,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="166726656"/>
-        <c:axId val="166729984"/>
+        <c:axId val="175647744"/>
+        <c:axId val="190206720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166726656"/>
+        <c:axId val="175647744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +652,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166729984"/>
+        <c:crossAx val="190206720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +660,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166729984"/>
+        <c:axId val="190206720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +669,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166726656"/>
+        <c:crossAx val="175647744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -650,7 +683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1627,20 +1660,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:20">
       <c r="B3">
         <v>204</v>
       </c>
@@ -1665,8 +1701,11 @@
       <c r="I3">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4">
         <v>309</v>
       </c>
@@ -1691,8 +1730,29 @@
       <c r="I4">
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5">
         <v>474</v>
       </c>
@@ -1717,8 +1777,40 @@
       <c r="I5">
         <v>417</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>3281</v>
+      </c>
+      <c r="N5">
+        <v>974</v>
+      </c>
+      <c r="O5">
+        <v>1159</v>
+      </c>
+      <c r="P5">
+        <v>688</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>3159</v>
+      </c>
+      <c r="S5">
+        <f>SUM(M5:R5)</f>
+        <v>9261</v>
+      </c>
+      <c r="T5">
+        <f>S5/2</f>
+        <v>4630.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6">
         <v>485</v>
       </c>
@@ -1743,8 +1835,37 @@
       <c r="I6">
         <v>453</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>526</v>
+      </c>
+      <c r="N6">
+        <v>2743</v>
+      </c>
+      <c r="O6">
+        <v>1607</v>
+      </c>
+      <c r="P6">
+        <v>377</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>3848</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S10" si="0">SUM(M6:R6)</f>
+        <v>9101</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T7" si="1">S6/2</f>
+        <v>4550.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7">
         <v>514</v>
       </c>
@@ -1769,8 +1890,37 @@
       <c r="I7">
         <v>436</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>713</v>
+      </c>
+      <c r="N7">
+        <v>3158</v>
+      </c>
+      <c r="O7">
+        <v>2541</v>
+      </c>
+      <c r="P7">
+        <v>319</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2775</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>9506</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8">
         <v>359</v>
       </c>
@@ -1795,8 +1945,37 @@
       <c r="I8">
         <v>323</v>
       </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>816</v>
+      </c>
+      <c r="N8">
+        <v>1069</v>
+      </c>
+      <c r="O8">
+        <v>1373</v>
+      </c>
+      <c r="P8">
+        <v>1584</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2744</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>7586</v>
+      </c>
+      <c r="T8">
+        <f>S8</f>
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9">
         <v>298</v>
       </c>
@@ -1821,8 +2000,37 @@
       <c r="I9">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>447</v>
+      </c>
+      <c r="N9">
+        <v>202</v>
+      </c>
+      <c r="O9">
+        <v>540</v>
+      </c>
+      <c r="P9">
+        <v>208</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>844</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2241</v>
+      </c>
+      <c r="T9">
+        <f>S9</f>
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10">
         <v>216</v>
       </c>
@@ -1847,13 +2055,125 @@
       <c r="I10">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>494</v>
+      </c>
+      <c r="N10">
+        <v>1815</v>
+      </c>
+      <c r="O10">
+        <v>1724</v>
+      </c>
+      <c r="P10">
+        <v>406</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11508</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>15947</v>
+      </c>
+      <c r="T10">
+        <f>S10/8</f>
+        <v>1993.375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M5:M10)</f>
+        <v>6277</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:R11" si="2">SUM(N5:N10)</f>
+        <v>9961</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>8944</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>3582</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>24878</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <f>2*6851</f>
+        <v>13702</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:O12" si="3">2*6851</f>
+        <v>13702</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>13702</v>
+      </c>
+      <c r="P12">
+        <v>6851</v>
+      </c>
+      <c r="Q12">
+        <v>6851</v>
+      </c>
+      <c r="R12">
+        <f>8*6851</f>
+        <v>54808</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <f>1 - M11/M12</f>
+        <v>0.54189169464311782</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:R13" si="4">1 - N11/N12</f>
+        <v>0.2730258356444315</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0.34724857685009491</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0.47715661947161003</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>0.54608816231207125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14">
         <v>906</v>
       </c>
@@ -1879,7 +2199,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:20">
       <c r="B15">
         <v>1111</v>
       </c>
@@ -1905,7 +2225,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:20">
       <c r="B16">
         <v>3183</v>
       </c>
@@ -2063,6 +2383,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:I10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:I21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2074,7 +2406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I21">
+  <conditionalFormatting sqref="M5:R10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>higher wins</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>survival:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>Moves</t>
   </si>
 </sst>
 </file>
@@ -640,11 +646,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="175647744"/>
-        <c:axId val="190206720"/>
+        <c:axId val="168032512"/>
+        <c:axId val="168050688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175647744"/>
+        <c:axId val="168032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +658,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190206720"/>
+        <c:crossAx val="168050688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -660,7 +666,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190206720"/>
+        <c:axId val="168050688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +675,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175647744"/>
+        <c:crossAx val="168032512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -683,7 +689,174 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>76.058823529411697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.369230769230697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.199218749999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.514018691588703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.7899022801302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.035143769968002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.322857142857103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.034482758620598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.233009708737796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.474074074073997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.212121212121197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.813333333333297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="37243520"/>
+        <c:axId val="37258368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="37243520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37258368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37258368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37243520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -703,6 +876,41 @@
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1009,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:J42"/>
+  <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,7 +1232,10 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10">
+    <row r="2" spans="3:10">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1249,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="5:10">
+    <row r="3" spans="3:10">
+      <c r="C3">
+        <f>H3+I3+J3</f>
+        <v>34</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -1055,7 +1270,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="5:10">
+    <row r="4" spans="3:10">
+      <c r="C4">
+        <f t="shared" ref="C4:C24" si="0">H4+I4+J4</f>
+        <v>65</v>
+      </c>
       <c r="E4">
         <f>E3+50</f>
         <v>50</v>
@@ -1074,13 +1293,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="5:10">
+    <row r="5" spans="3:10">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
       <c r="E5">
-        <f t="shared" ref="E5:E24" si="0">E4+50</f>
+        <f t="shared" ref="E5:E24" si="1">E4+50</f>
         <v>100</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F24" si="1">F4+50</f>
+        <f t="shared" ref="F5:F24" si="2">F4+50</f>
         <v>149</v>
       </c>
       <c r="H5">
@@ -1093,13 +1316,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="5:10">
+    <row r="6" spans="3:10">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="H6">
@@ -1112,13 +1339,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="5:10">
+    <row r="7" spans="3:10">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>614</v>
+      </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
       <c r="H7">
@@ -1131,13 +1362,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="5:10">
+    <row r="8" spans="3:10">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="H8">
@@ -1150,13 +1385,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="5:10">
+    <row r="9" spans="3:10">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>349</v>
       </c>
       <c r="H9">
@@ -1169,13 +1408,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="3:10">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>399</v>
       </c>
       <c r="H10">
@@ -1188,13 +1431,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="3:10">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="H11">
@@ -1207,13 +1454,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="3:10">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>499</v>
       </c>
       <c r="H12">
@@ -1226,13 +1477,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="5:10">
+    <row r="13" spans="3:10">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>549</v>
       </c>
       <c r="H13">
@@ -1245,13 +1500,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:10">
+    <row r="14" spans="3:10">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="H14">
@@ -1264,13 +1523,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="3:10">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>649</v>
       </c>
       <c r="H15">
@@ -1283,13 +1546,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:10">
+    <row r="16" spans="3:10">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="H16">
@@ -1302,13 +1569,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:10">
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>749</v>
       </c>
       <c r="H17">
@@ -1321,13 +1592,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:10">
+    <row r="18" spans="3:10">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>799</v>
       </c>
       <c r="H18">
@@ -1340,13 +1615,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:10">
+    <row r="19" spans="3:10">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>849</v>
       </c>
       <c r="H19">
@@ -1359,13 +1638,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:10">
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>850</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>899</v>
       </c>
       <c r="H20">
@@ -1378,13 +1661,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:10">
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>949</v>
       </c>
       <c r="H21">
@@ -1397,13 +1684,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:10">
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>999</v>
       </c>
       <c r="H22">
@@ -1416,13 +1707,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:10">
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1049</v>
       </c>
       <c r="H23">
@@ -1435,13 +1730,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:10">
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1099</v>
       </c>
       <c r="H24">
@@ -1454,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:10">
+    <row r="25" spans="3:10">
       <c r="H25">
         <v>0</v>
       </c>
@@ -1465,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:10">
+    <row r="26" spans="3:10">
       <c r="H26">
         <v>0</v>
       </c>
@@ -1476,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:10">
+    <row r="27" spans="3:10">
       <c r="H27">
         <v>0</v>
       </c>
@@ -1487,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:10">
+    <row r="28" spans="3:10">
       <c r="H28">
         <v>0</v>
       </c>
@@ -1498,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:10">
+    <row r="29" spans="3:10">
       <c r="H29">
         <v>0</v>
       </c>
@@ -1509,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:10">
+    <row r="30" spans="3:10">
       <c r="H30">
         <v>0</v>
       </c>
@@ -1520,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:10">
+    <row r="31" spans="3:10">
       <c r="H31">
         <v>0</v>
       </c>
@@ -1531,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:10">
+    <row r="32" spans="3:10">
       <c r="H32">
         <v>0</v>
       </c>
@@ -1662,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,6 +1974,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="K2">
+        <v>3258</v>
+      </c>
     </row>
     <row r="3" spans="2:20">
       <c r="B3">
@@ -2119,26 +2421,28 @@
         <v>15</v>
       </c>
       <c r="M12">
-        <f>2*6851</f>
-        <v>13702</v>
+        <f>4*$K$2</f>
+        <v>13032</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:O12" si="3">2*6851</f>
-        <v>13702</v>
+        <f>4*$K$2</f>
+        <v>13032</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>13702</v>
+        <f>4*$K$2</f>
+        <v>13032</v>
       </c>
       <c r="P12">
-        <v>6851</v>
+        <f>2*$K$2</f>
+        <v>6516</v>
       </c>
       <c r="Q12">
-        <v>6851</v>
+        <f>2*$K$2</f>
+        <v>6516</v>
       </c>
       <c r="R12">
-        <f>8*6851</f>
-        <v>54808</v>
+        <f>16*$K$2</f>
+        <v>52128</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -2150,27 +2454,27 @@
       </c>
       <c r="M13">
         <f>1 - M11/M12</f>
-        <v>0.54189169464311782</v>
+        <v>0.51833947206875386</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:R13" si="4">1 - N11/N12</f>
-        <v>0.2730258356444315</v>
+        <f t="shared" ref="N13:R13" si="3">1 - N11/N12</f>
+        <v>0.23565070595457338</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
-        <v>0.34724857685009491</v>
+        <f t="shared" si="3"/>
+        <v>0.31368937998772251</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
-        <v>0.47715661947161003</v>
+        <f t="shared" si="3"/>
+        <v>0.45027624309392267</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
-        <v>0.54608816231207125</v>
+        <f t="shared" si="3"/>
+        <v>0.52275168815224071</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -2424,12 +2728,377 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>76.058823529411697</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <f>A3*50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>68.369230769230697</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D24" si="0">A4*50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>60.199218749999901</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A24" si="1">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>49.514018691588703</v>
+      </c>
+      <c r="C6">
+        <v>535</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>47.7899022801302</v>
+      </c>
+      <c r="C7">
+        <v>614</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>43.035143769968002</v>
+      </c>
+      <c r="C8">
+        <v>626</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>43.322857142857103</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>41.034482758620598</v>
+      </c>
+      <c r="C10">
+        <v>174</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>39.233009708737796</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>39.474074074073997</v>
+      </c>
+      <c r="C12">
+        <v>135</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>36.212121212121197</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>35.813333333333297</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>39.076923076923002</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>35.4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>34.692307692307601</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>36.6666666666666</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>26.3333333333333</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25">
+        <f>SUM(C3:C24)</f>
+        <v>3251</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,11 +646,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="168032512"/>
-        <c:axId val="168050688"/>
+        <c:axId val="146862464"/>
+        <c:axId val="146864000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168032512"/>
+        <c:axId val="146862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +658,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168050688"/>
+        <c:crossAx val="146864000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +666,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168050688"/>
+        <c:axId val="146864000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168032512"/>
+        <c:crossAx val="146862464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -689,7 +689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -813,11 +813,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="37243520"/>
-        <c:axId val="37258368"/>
+        <c:axId val="146869248"/>
+        <c:axId val="148701952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37243520"/>
+        <c:axId val="146869248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +825,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37258368"/>
+        <c:crossAx val="148701952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +834,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37258368"/>
+        <c:axId val="148701952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37243520"/>
+        <c:crossAx val="146869248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,7 +856,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1220,7 +1220,7 @@
   <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2730,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,11 +646,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="146862464"/>
-        <c:axId val="146864000"/>
+        <c:axId val="172026112"/>
+        <c:axId val="172044288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146862464"/>
+        <c:axId val="172026112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +658,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146864000"/>
+        <c:crossAx val="172044288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +666,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146864000"/>
+        <c:axId val="172044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146862464"/>
+        <c:crossAx val="172026112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -689,7 +689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -813,11 +813,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146869248"/>
-        <c:axId val="148701952"/>
+        <c:axId val="172504192"/>
+        <c:axId val="172505728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146869248"/>
+        <c:axId val="172504192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +825,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148701952"/>
+        <c:crossAx val="172505728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +834,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148701952"/>
+        <c:axId val="172505728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146869248"/>
+        <c:crossAx val="172504192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,7 +856,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1220,7 +1220,7 @@
   <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,6 +1754,10 @@
       </c>
     </row>
     <row r="25" spans="3:10">
+      <c r="C25">
+        <f>SUM(C3:C24)</f>
+        <v>3251</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1961,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -2730,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ELO difference" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -79,8 +80,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,6 +872,126 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$F$3:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>51.105263157894697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.350378787878803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.650256410256397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.823017408123697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.472668810289299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.344028520499101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.745874587458701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.650224215246602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.3744680851064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.649635036496299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.618811881188101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.5757575757575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.090909090909001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.466666666666598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="176177920"/>
+        <c:axId val="176179456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="176177920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176179456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176179456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176177920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -915,6 +1045,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1966,7 +2131,7 @@
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2734,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3105,4 +3270,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>51.105263157894697</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4">
+        <f>50+C3</f>
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f>50+D3</f>
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>50.75</v>
+      </c>
+      <c r="G4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5">
+        <f t="shared" ref="C5:D13" si="0">50+C4</f>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="F5">
+        <v>50.350378787878803</v>
+      </c>
+      <c r="G5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="F6">
+        <v>46.650256410256397</v>
+      </c>
+      <c r="G6">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F7">
+        <v>44.823017408123697</v>
+      </c>
+      <c r="G7">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="F8">
+        <v>42.472668810289299</v>
+      </c>
+      <c r="G8">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="F9">
+        <v>42.344028520499101</v>
+      </c>
+      <c r="G9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="F10">
+        <v>40.745874587458701</v>
+      </c>
+      <c r="G10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="F11">
+        <v>38.650224215246602</v>
+      </c>
+      <c r="G11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="F12">
+        <v>38.3744680851064</v>
+      </c>
+      <c r="G12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="F13">
+        <v>37.649635036496299</v>
+      </c>
+      <c r="G13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14">
+        <f t="shared" ref="C14:C24" si="1">50+C13</f>
+        <v>550</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D24" si="2">50+D13</f>
+        <v>599</v>
+      </c>
+      <c r="F14">
+        <v>35.618811881188101</v>
+      </c>
+      <c r="G14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="F15">
+        <v>38.5757575757575</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>699</v>
+      </c>
+      <c r="F16">
+        <v>38.3333333333333</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>749</v>
+      </c>
+      <c r="F17">
+        <v>38.5</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>799</v>
+      </c>
+      <c r="F18">
+        <v>37.090909090909001</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>849</v>
+      </c>
+      <c r="F19">
+        <v>33.466666666666598</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>899</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="F22">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1049</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>1099</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="G25" s="1">
+        <f>SUM(G3:G24)</f>
+        <v>5624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="ELO difference" sheetId="4" r:id="rId4"/>
+    <sheet name="Captures" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>higher wins</t>
   </si>
@@ -74,6 +75,24 @@
   </si>
   <si>
     <t>Moves</t>
+  </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>wins</t>
+  </si>
+  <si>
+    <t>draws</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>Captured</t>
   </si>
 </sst>
 </file>
@@ -656,11 +675,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="172026112"/>
-        <c:axId val="172044288"/>
+        <c:axId val="155151360"/>
+        <c:axId val="173105920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172026112"/>
+        <c:axId val="155151360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +687,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172044288"/>
+        <c:crossAx val="173105920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -676,7 +695,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172044288"/>
+        <c:axId val="173105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +704,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172026112"/>
+        <c:crossAx val="155151360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -699,7 +718,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -823,11 +842,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="172504192"/>
-        <c:axId val="172505728"/>
+        <c:axId val="173045632"/>
+        <c:axId val="173047168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172504192"/>
+        <c:axId val="173045632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +854,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172505728"/>
+        <c:crossAx val="173047168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,7 +863,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172505728"/>
+        <c:axId val="173047168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +872,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172504192"/>
+        <c:crossAx val="173045632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -866,7 +885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -886,6 +905,81 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ELO difference'!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'ELO difference'!$F$3:$F$19</c:f>
@@ -948,24 +1042,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="176177920"/>
-        <c:axId val="176179456"/>
+        <c:axId val="173067264"/>
+        <c:axId val="175461120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176177920"/>
+        <c:axId val="173067264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176179456"/>
+        <c:crossAx val="175461120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176179456"/>
+        <c:axId val="175461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +1068,499 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176177920"/>
+        <c:crossAx val="173067264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$J$3:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="170818560"/>
+        <c:axId val="98727040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170818560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98727040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98727040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170818560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELO difference'!$J$3:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="99332480"/>
+        <c:axId val="99334016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99332480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99334016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99334016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99332480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,16 +1653,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>462641</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>367390</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1089,6 +1676,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>86745</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>413317</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1385,7 +2032,7 @@
   <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,7 +2778,7 @@
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="L5" sqref="L5:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3274,15 +3921,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:G25"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="2" spans="2:10">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="str">
+        <f>IF(G3=H3+I3+J3,"OK","NOT")</f>
+        <v>OK</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -3295,8 +3970,21 @@
       <c r="G3">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>47</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B24" si="0">IF(G4=H4+I4+J4,"OK","NOT")</f>
+        <v>OK</v>
+      </c>
       <c r="C4">
         <f>50+C3</f>
         <v>50</v>
@@ -3311,14 +3999,27 @@
       <c r="G4">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>83</v>
+      </c>
+      <c r="J4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C5">
-        <f t="shared" ref="C5:D13" si="0">50+C4</f>
+        <f t="shared" ref="C5:D13" si="1">50+C4</f>
         <v>100</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="F5">
@@ -3327,14 +4028,27 @@
       <c r="G5">
         <v>528</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="H5">
+        <v>248</v>
+      </c>
+      <c r="I5">
+        <v>185</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="F6">
@@ -3343,14 +4057,27 @@
       <c r="G6">
         <v>975</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="H6">
+        <v>531</v>
+      </c>
+      <c r="I6">
+        <v>304</v>
+      </c>
+      <c r="J6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="F7">
@@ -3359,14 +4086,27 @@
       <c r="G7">
         <v>1034</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
+      <c r="H7">
+        <v>623</v>
+      </c>
+      <c r="I7">
+        <v>267</v>
+      </c>
+      <c r="J7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="F8">
@@ -3375,14 +4115,27 @@
       <c r="G8">
         <v>933</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="H8">
+        <v>634</v>
+      </c>
+      <c r="I8">
+        <v>180</v>
+      </c>
+      <c r="J8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349</v>
       </c>
       <c r="F9">
@@ -3391,14 +4144,27 @@
       <c r="G9">
         <v>561</v>
       </c>
-    </row>
-    <row r="10" spans="3:7">
+      <c r="H9">
+        <v>404</v>
+      </c>
+      <c r="I9">
+        <v>86</v>
+      </c>
+      <c r="J9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399</v>
       </c>
       <c r="F10">
@@ -3407,14 +4173,27 @@
       <c r="G10">
         <v>303</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="H10">
+        <v>224</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="F11">
@@ -3423,14 +4202,27 @@
       <c r="G11">
         <v>223</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="H11">
+        <v>173</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>499</v>
       </c>
       <c r="F12">
@@ -3439,14 +4231,27 @@
       <c r="G12">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="H12">
+        <v>198</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>549</v>
       </c>
       <c r="F13">
@@ -3455,14 +4260,27 @@
       <c r="G13">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="H13">
+        <v>122</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C14">
-        <f t="shared" ref="C14:C24" si="1">50+C13</f>
+        <f t="shared" ref="C14:C24" si="2">50+C13</f>
         <v>550</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D24" si="2">50+D13</f>
+        <f t="shared" ref="D14:D24" si="3">50+D13</f>
         <v>599</v>
       </c>
       <c r="F14">
@@ -3471,14 +4289,27 @@
       <c r="G14">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="H14">
+        <v>185</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>649</v>
       </c>
       <c r="F15">
@@ -3487,14 +4318,27 @@
       <c r="G15">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="H15">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>699</v>
       </c>
       <c r="F16">
@@ -3503,14 +4347,27 @@
       <c r="G16">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>749</v>
       </c>
       <c r="F17">
@@ -3519,14 +4376,27 @@
       <c r="G17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>799</v>
       </c>
       <c r="F18">
@@ -3535,14 +4405,27 @@
       <c r="G18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>849</v>
       </c>
       <c r="F19">
@@ -3551,14 +4434,27 @@
       <c r="G19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>899</v>
       </c>
       <c r="F20">
@@ -3567,14 +4463,27 @@
       <c r="G20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>949</v>
       </c>
       <c r="F21">
@@ -3583,14 +4492,27 @@
       <c r="G21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>999</v>
       </c>
       <c r="F22">
@@ -3599,14 +4521,27 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1049</v>
       </c>
       <c r="F23">
@@ -3615,14 +4550,27 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1099</v>
       </c>
       <c r="F24">
@@ -3631,8 +4579,17 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="G25" s="1">
         <f>SUM(G3:G24)</f>
         <v>5624</v>
@@ -3643,4 +4600,362 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5793</v>
+      </c>
+      <c r="D4">
+        <v>1652</v>
+      </c>
+      <c r="E4">
+        <v>2071</v>
+      </c>
+      <c r="F4">
+        <v>1192</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>918</v>
+      </c>
+      <c r="D5">
+        <v>4812</v>
+      </c>
+      <c r="E5">
+        <v>2889</v>
+      </c>
+      <c r="F5">
+        <v>655</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6795</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1273</v>
+      </c>
+      <c r="D6">
+        <v>5575</v>
+      </c>
+      <c r="E6">
+        <v>4490</v>
+      </c>
+      <c r="F6">
+        <v>563</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1415</v>
+      </c>
+      <c r="D7">
+        <v>1872</v>
+      </c>
+      <c r="E7">
+        <v>2340</v>
+      </c>
+      <c r="F7">
+        <v>2756</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>772</v>
+      </c>
+      <c r="D8">
+        <v>356</v>
+      </c>
+      <c r="E8">
+        <v>910</v>
+      </c>
+      <c r="F8">
+        <v>349</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>843</v>
+      </c>
+      <c r="D9">
+        <v>3194</v>
+      </c>
+      <c r="E9">
+        <v>3018</v>
+      </c>
+      <c r="F9">
+        <v>703</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>20275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11">
+        <f>C4/2</f>
+        <v>2896.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:H11" si="0">D4/2</f>
+        <v>826</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1035.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2816.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12">
+        <f t="shared" ref="C12:H13" si="1">C5/2</f>
+        <v>459</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2406</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1444.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>327.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3397.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>636.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2787.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2245</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>281.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14">
+        <f>C7</f>
+        <v>1415</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:H14" si="2">D7</f>
+        <v>1872</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2340</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2756</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15">
+        <f>C8</f>
+        <v>772</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="3">D8</f>
+        <v>356</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>910</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16">
+        <f>C9/8</f>
+        <v>105.375</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:H16" si="4">D9/8</f>
+        <v>399.25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>377.25</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>87.875</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>2534.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:H9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:H16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,11 +675,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="155151360"/>
-        <c:axId val="173105920"/>
+        <c:axId val="54087680"/>
+        <c:axId val="54089216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155151360"/>
+        <c:axId val="54087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173105920"/>
+        <c:crossAx val="54089216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +695,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173105920"/>
+        <c:axId val="54089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +704,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155151360"/>
+        <c:crossAx val="54087680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -712,13 +712,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -842,11 +841,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="173045632"/>
-        <c:axId val="173047168"/>
+        <c:axId val="54094464"/>
+        <c:axId val="55091584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173045632"/>
+        <c:axId val="54094464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +853,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173047168"/>
+        <c:crossAx val="55091584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +862,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173047168"/>
+        <c:axId val="55091584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +871,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173045632"/>
+        <c:crossAx val="54094464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,7 +884,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1042,25 +1041,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="173067264"/>
-        <c:axId val="175461120"/>
+        <c:axId val="54301056"/>
+        <c:axId val="54302592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173067264"/>
+        <c:axId val="54301056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175461120"/>
+        <c:crossAx val="54302592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175461120"/>
+        <c:axId val="54302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1067,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173067264"/>
+        <c:crossAx val="54301056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,7 +1080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1289,24 +1288,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="170818560"/>
-        <c:axId val="98727040"/>
+        <c:axId val="54528256"/>
+        <c:axId val="54534144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170818560"/>
+        <c:axId val="54528256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98727040"/>
+        <c:crossAx val="54534144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98727040"/>
+        <c:axId val="54534144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1313,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170818560"/>
+        <c:crossAx val="54528256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,7 +1326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1535,24 +1534,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="99332480"/>
-        <c:axId val="99334016"/>
+        <c:axId val="54571776"/>
+        <c:axId val="54573312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99332480"/>
+        <c:axId val="54571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99334016"/>
+        <c:crossAx val="54573312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99334016"/>
+        <c:axId val="54573312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1559,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99332480"/>
+        <c:crossAx val="54571776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,7 +1572,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3923,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4606,7 +4605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>higher wins</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>Captured</t>
   </si>
+  <si>
+    <t>Capturing</t>
+  </si>
 </sst>
 </file>
 
@@ -675,11 +678,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="54087680"/>
-        <c:axId val="54089216"/>
+        <c:axId val="136434816"/>
+        <c:axId val="136436352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54087680"/>
+        <c:axId val="136434816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +690,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54089216"/>
+        <c:crossAx val="136436352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +698,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54089216"/>
+        <c:axId val="136436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +707,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54087680"/>
+        <c:crossAx val="136434816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -717,7 +720,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -841,11 +844,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54094464"/>
-        <c:axId val="55091584"/>
+        <c:axId val="138752000"/>
+        <c:axId val="138753536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54094464"/>
+        <c:axId val="138752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +856,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55091584"/>
+        <c:crossAx val="138753536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -862,7 +865,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55091584"/>
+        <c:axId val="138753536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,20 +874,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54094464"/>
+        <c:crossAx val="138752000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1041,25 +1043,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54301056"/>
-        <c:axId val="54302592"/>
+        <c:axId val="140203520"/>
+        <c:axId val="140205056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54301056"/>
+        <c:axId val="140203520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54302592"/>
+        <c:crossAx val="140205056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54302592"/>
+        <c:axId val="140205056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1069,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54301056"/>
+        <c:crossAx val="140203520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1082,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1288,24 +1290,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="54528256"/>
-        <c:axId val="54534144"/>
+        <c:axId val="140221824"/>
+        <c:axId val="140252288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54528256"/>
+        <c:axId val="140221824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54534144"/>
+        <c:crossAx val="140252288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54534144"/>
+        <c:axId val="140252288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1315,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54528256"/>
+        <c:crossAx val="140221824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1328,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1534,24 +1536,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="54571776"/>
-        <c:axId val="54573312"/>
+        <c:axId val="140269440"/>
+        <c:axId val="140270976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54571776"/>
+        <c:axId val="140269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54573312"/>
+        <c:crossAx val="140270976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54573312"/>
+        <c:axId val="140270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1561,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54571776"/>
+        <c:crossAx val="140269440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,7 +1574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3922,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
@@ -4603,20 +4605,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="E2" t="s">
+    <row r="1" spans="1:15">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="2" spans="1:15">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f>C2</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:O2" si="0">D2</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4684,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4658,8 +4709,35 @@
       <c r="H4">
         <v>5633</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4">
+        <f>C4/$A4</f>
+        <v>2896.5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:O9" si="1">D4/$A4</f>
+        <v>826</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1035.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2816.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -4681,8 +4759,35 @@
       <c r="H5">
         <v>6795</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5">
+        <f t="shared" ref="J5:J9" si="2">C5/$A5</f>
+        <v>459</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2406</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1444.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>327.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>3397.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -4704,8 +4809,35 @@
       <c r="H6">
         <v>4970</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>636.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2787.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2245</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>281.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -4727,8 +4859,35 @@
       <c r="H7">
         <v>4807</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1872</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2340</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2756</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -4750,8 +4909,35 @@
       <c r="H8">
         <v>1514</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -4773,165 +4959,357 @@
       <c r="H9">
         <v>20275</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="C11">
-        <f>C4/2</f>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>105.375</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>399.25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>377.25</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>87.875</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2534.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12">
+        <f>C4/C$2</f>
         <v>2896.5</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:H11" si="0">D4/2</f>
+      <c r="D12">
+        <f t="shared" ref="D12:H12" si="3">D4/D$2</f>
         <v>826</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f t="shared" si="3"/>
         <v>1035.5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1192</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>704.125</v>
+      </c>
+      <c r="J12">
+        <f>J4/J$2</f>
+        <v>1448.25</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:O12" si="4">K4/K$2</f>
+        <v>413</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>517.75</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
         <v>596</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>2816.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="C12">
-        <f t="shared" ref="C12:H13" si="1">C5/2</f>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>352.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13">
+        <f t="shared" ref="C13:H13" si="5">C5/C$2</f>
         <v>459</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+      <c r="D13">
+        <f t="shared" si="5"/>
         <v>2406</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
+      <c r="E13">
+        <f t="shared" si="5"/>
         <v>1444.5</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>655</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>849.375</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:O17" si="6">J5/J$2</f>
+        <v>229.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>1203</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>722.25</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
         <v>327.5</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>3397.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="C13">
-        <f t="shared" si="1"/>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>424.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="7">C6/C$2</f>
         <v>636.5</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+      <c r="D14">
+        <f t="shared" si="7"/>
         <v>2787.5</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+      <c r="E14">
+        <f t="shared" si="7"/>
         <v>2245</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="F14">
+        <f t="shared" si="7"/>
+        <v>563</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>621.25</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>318.25</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>1393.75</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>1122.5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
         <v>281.5</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="C14">
-        <f>C7</f>
-        <v>1415</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:H14" si="2">D7</f>
-        <v>1872</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>2340</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>310.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15">
+        <f t="shared" ref="C15:H15" si="8">C7/C$2</f>
+        <v>707.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>936</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>1170</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
         <v>2756</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>4807</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="C15">
-        <f>C8</f>
-        <v>772</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:H15" si="3">D8</f>
-        <v>356</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>910</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>600.875</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>707.5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>936</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>1170</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>2756</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>600.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16">
+        <f t="shared" ref="C16:H16" si="9">C8/C$2</f>
+        <v>386</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>178</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>455</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
         <v>349</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="C16">
-        <f>C9/8</f>
-        <v>105.375</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:H16" si="4">D9/8</f>
-        <v>399.25</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
-        <v>377.25</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>189.25</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>386</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>455</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>349</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>189.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17">
+        <f t="shared" ref="C17:H17" si="10">C9/C$2</f>
+        <v>421.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="10"/>
+        <v>1597</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="10"/>
+        <v>1509</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>703</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>2534.375</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>52.6875</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>199.625</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>188.625</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
         <v>87.875</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>2534.375</v>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>316.796875</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:H9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:H18 J12:O17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:H17 J12:O17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4943,7 +5321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:H16">
+  <conditionalFormatting sqref="J4:O9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="ELO difference" sheetId="4" r:id="rId4"/>
     <sheet name="Captures" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -678,11 +679,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="136434816"/>
-        <c:axId val="136436352"/>
+        <c:axId val="162232576"/>
+        <c:axId val="162246656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136434816"/>
+        <c:axId val="162232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +691,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136436352"/>
+        <c:crossAx val="162246656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -698,7 +699,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136436352"/>
+        <c:axId val="162246656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +708,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136434816"/>
+        <c:crossAx val="162232576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -720,7 +721,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -844,11 +845,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138752000"/>
-        <c:axId val="138753536"/>
+        <c:axId val="162256000"/>
+        <c:axId val="162257536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138752000"/>
+        <c:axId val="162256000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +857,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138753536"/>
+        <c:crossAx val="162257536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +866,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138753536"/>
+        <c:axId val="162257536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,19 +875,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138752000"/>
+        <c:crossAx val="162256000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1043,25 +1045,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140203520"/>
-        <c:axId val="140205056"/>
+        <c:axId val="162900608"/>
+        <c:axId val="162906496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140203520"/>
+        <c:axId val="162900608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140205056"/>
+        <c:crossAx val="162906496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140205056"/>
+        <c:axId val="162906496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1071,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140203520"/>
+        <c:crossAx val="162900608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,7 +1084,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1290,24 +1292,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="140221824"/>
-        <c:axId val="140252288"/>
+        <c:axId val="163209984"/>
+        <c:axId val="163211520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140221824"/>
+        <c:axId val="163209984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140252288"/>
+        <c:crossAx val="163211520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140252288"/>
+        <c:axId val="163211520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1317,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140221824"/>
+        <c:crossAx val="163209984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1328,7 +1330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1536,24 +1538,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="140269440"/>
-        <c:axId val="140270976"/>
+        <c:axId val="163224576"/>
+        <c:axId val="163242752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140269440"/>
+        <c:axId val="163224576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140270976"/>
+        <c:crossAx val="163242752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140270976"/>
+        <c:axId val="163242752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1563,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140269440"/>
+        <c:crossAx val="163224576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3925,7 +3927,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4607,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -5335,4 +5337,1028 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:D102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>1-SQRT(SQRT(C2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3">
+        <f>C2+1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">1-SQRT(SQRT(C3))</f>
+        <v>0.683772233983162</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">C3+1/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.62393969069136057</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.58382085497121827</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.55278640450004213</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.52712919549841208</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.50507679961602348</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.48563132763895989</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.46817041030550111</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.45227744249483393</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.43765867480965093</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.42409855093467597</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.41143380872345769</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.39953757191111539</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.38830911509374766</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.37766702271152164</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.36754446796632412</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.35788586484818286</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.3486444375673694</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.33978041959203653</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.33125969502357799</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.32305275722876003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000006</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.31513389923113944</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.30748057620650671</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.30007289768388334</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.29289321881345243</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.28592580822488867</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.27915657575957364</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.27257284748717403</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000009</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.26616317841535742</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.25991719550771475</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.25382546526767458</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.24787938138272125</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.24207106886344354</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.34000000000000014</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.23639330183364016</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000014</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.23083943268654128</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000015</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.2254033307585166</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.220079329014917</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000017</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.21486217751473868</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.39000000000000018</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.20974700263786417</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.20472927123294926</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.4100000000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.19980475898485561</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000021</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.19496952241496712</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.43000000000000022</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.19021987402122531</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000022</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.18555236014150045</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000023</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.18096374118727987</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000024</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.176450973947193</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000025</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.17201119570364687</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000026</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.16764170994243643</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.16333997346592433</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.15910358474628539</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.51000000000000023</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.15493027337722887</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.15081789050121996</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.1467644001050753</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.54000000000000026</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.14276787109036004</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.13882647003663284</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000028</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.13493845458557785</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.13110216738268066</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000029</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.12731603052056062</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.12357854043453442</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.1198882632066065</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.11624383023898177</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000033</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.11264393426247354</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.63000000000000034</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.10908732564892909</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000035</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.10557280900008392</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="2">1-SQRT(SQRT(C67))</f>
+        <v>0.10209923998815151</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68">
+        <f t="shared" ref="C68:C107" si="3">C67+1/100</f>
+        <v>0.66000000000000036</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>9.8665522425999574E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>9.5270605547025933E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>9.1913481476829539E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>8.8593182880549293E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>8.5308780771305437E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>8.2059382466580177E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>7.8844129680618491E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>7.5662196742038779E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>7.2512788926842986E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>6.939514089790022E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>6.6308515242783694E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>6.3252201102552696E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>6.0225512884721444E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>5.7227789054238642E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>5.4258390996824057E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>5.1316701949486121E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>4.8402125993473044E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>4.5514087105299361E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>4.2652028261840225E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>3.9815410595812062E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>3.7003712598241312E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>3.4216429364797185E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>3.1453071883098649E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>2.8713166358330211E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>2.5996253574703032E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>2.3301888290477968E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>2.0629638664440564E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>1.7979085711869458E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>1.53498227881812E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>1.2741455098566057E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>1.0153599232046728E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>7.5858827185040223E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>5.0379436073118011E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>2.509430066318763E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wins_by_difference.xlsx
+++ b/wins_by_difference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11475" windowHeight="6480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>higher wins</t>
   </si>
@@ -98,6 +98,24 @@
   <si>
     <t>Capturing</t>
   </si>
+  <si>
+    <t>1448.25,413,517.75,1192,0,88.015625</t>
+  </si>
+  <si>
+    <t>229.5,1203,722.25,655,0,106.171875</t>
+  </si>
+  <si>
+    <t>318.25,1393.75,1122.5,563,0,77.65625</t>
+  </si>
+  <si>
+    <t>353.75,468,585,2756,0,75.109375</t>
+  </si>
+  <si>
+    <t>193,89,227.5,349,0,23.65625</t>
+  </si>
+  <si>
+    <t>210.75,798.5,754.5,703,0,316.796875</t>
+  </si>
 </sst>
 </file>
 
@@ -679,11 +697,11 @@
         </c:ser>
         <c:gapWidth val="135"/>
         <c:overlap val="100"/>
-        <c:axId val="162232576"/>
-        <c:axId val="162246656"/>
+        <c:axId val="74394240"/>
+        <c:axId val="77797632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162232576"/>
+        <c:axId val="74394240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +709,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162246656"/>
+        <c:crossAx val="77797632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +717,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162246656"/>
+        <c:axId val="77797632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +726,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162232576"/>
+        <c:crossAx val="74394240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -721,7 +739,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -845,11 +863,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162256000"/>
-        <c:axId val="162257536"/>
+        <c:axId val="78066816"/>
+        <c:axId val="78068352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162256000"/>
+        <c:axId val="78066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +875,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162257536"/>
+        <c:crossAx val="78068352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -866,7 +884,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162257536"/>
+        <c:axId val="78068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,20 +893,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162256000"/>
+        <c:crossAx val="78066816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1045,25 +1062,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162900608"/>
-        <c:axId val="162906496"/>
+        <c:axId val="54667520"/>
+        <c:axId val="54673408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162900608"/>
+        <c:axId val="54667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162906496"/>
+        <c:crossAx val="54673408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162906496"/>
+        <c:axId val="54673408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,20 +1088,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162900608"/>
+        <c:crossAx val="54667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1292,24 +1308,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="163209984"/>
-        <c:axId val="163211520"/>
+        <c:axId val="54686080"/>
+        <c:axId val="54687616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163209984"/>
+        <c:axId val="54686080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163211520"/>
+        <c:crossAx val="54687616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163211520"/>
+        <c:axId val="54687616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,20 +1333,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163209984"/>
+        <c:crossAx val="54686080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1538,24 +1553,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="163224576"/>
-        <c:axId val="163242752"/>
+        <c:axId val="54712960"/>
+        <c:axId val="54714752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163224576"/>
+        <c:axId val="54712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163242752"/>
+        <c:crossAx val="54714752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163242752"/>
+        <c:axId val="54714752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,20 +1578,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163224576"/>
+        <c:crossAx val="54712960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4607,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5284,6 +5298,36 @@
       <c r="O17">
         <f t="shared" si="6"/>
         <v>316.796875</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="J26" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5343,7 +5387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
@@ -6010,7 +6054,7 @@
     </row>
     <row r="68" spans="3:4">
       <c r="C68">
-        <f t="shared" ref="C68:C107" si="3">C67+1/100</f>
+        <f t="shared" ref="C68:C102" si="3">C67+1/100</f>
         <v>0.66000000000000036</v>
       </c>
       <c r="D68">
